--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Aromo del Verano</t>
+          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Miscanti de Verano SpA</t>
+          <t>Metalurgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10213</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>02/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/12/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hefesto Solar</t>
+          <t>Parque Fotovoltaico Aromo del Verano</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CVE Proyecto Veintisiete SpA.</t>
+          <t>Miscanti de Verano SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>10213</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>22/12/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Hefesto Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>CVE Proyecto Veintisiete SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
+          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
+          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
+          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>15000</v>
+        <v>807</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PFV DOÑIHUE SPA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8200</v>
+        <v>15000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/09/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
+          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>PFV DOÑIHUE SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>51000</v>
+        <v>8200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>21/09/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>51000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alazán</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Alazán S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
+          <t>Proyecto Hidroeléctrico Alazán</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Hidroeléctrica Alazán S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>19/07/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13553</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>13553</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>16/09/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4834</v>
+        <v>22</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1750</v>
+        <v>4834</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>09/05/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>25/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>25/07/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/06/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4834</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>138</v>
+        <v>4834</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cristian Vial Budge</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>15000</v>
+        <v>138</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Cristian Vial Budge</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>138</v>
+        <v>15000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10000</v>
+        <v>72</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>28/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/11/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Faenadora lo Miranda Limitada</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Faenadora lo Miranda Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/11/2004</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FUNDICION TALLERES S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
+          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>FUNDICION TALLERES S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>16000</v>
+        <v>380</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/11/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Colegio Los Cipreses</t>
+          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sociedad Agricola y Comercial SP Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1850</v>
+        <v>856</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>20/11/2002</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Emisario Lo Miranda - Doñihue</t>
+          <t>Colegio Los Cipreses</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Agricola y Comercial SP Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>400</v>
+        <v>1850</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>25/08/1999</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Extracción de Áridos desde El Río Cachapoal</t>
+          <t>Emisario Lo Miranda - Doñihue</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>9590</v>
+        <v>400</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>25/08/1999</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,43 +3832,91 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>Extracción de Áridos desde El Río Cachapoal</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>9590</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10/08/1999</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Doñihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>Sistema de Alcantarillado de Aguas Servidas de Lo Miranda</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>ESSBIO S.A.</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="F74" t="n">
         <v>5300</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>01/12/1997</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Doñihue</t>
         </is>

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/11/2022</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
+          <t>Regularización Planta Metran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Metalurgica Rancagua S.A.</t>
+          <t>Andrés Eduardo Cardoen Aylwin</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>29/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158023139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Aromo del Verano</t>
+          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Miscanti de Verano SpA</t>
+          <t>Metalurgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10213</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/12/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hefesto Solar</t>
+          <t>Parque Fotovoltaico Aromo del Verano</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CVE Proyecto Veintisiete SpA.</t>
+          <t>Miscanti de Verano SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>10213</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>22/12/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Hefesto Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>CVE Proyecto Veintisiete SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
+          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
+          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
+          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15000</v>
+        <v>807</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PFV DOÑIHUE SPA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8200</v>
+        <v>15000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/09/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
+          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>PFV DOÑIHUE SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>51000</v>
+        <v>8200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>21/09/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>51000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alazán</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Alazán S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
+          <t>Proyecto Hidroeléctrico Alazán</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Hidroeléctrica Alazán S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>19/07/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>13553</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>13553</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>16/09/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4834</v>
+        <v>22</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1750</v>
+        <v>4834</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>09/05/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,11 +2171,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>25/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>25/07/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/06/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,21 +2555,21 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4834</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>138</v>
+        <v>4834</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cristian Vial Budge</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>15000</v>
+        <v>138</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Cristian Vial Budge</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>138</v>
+        <v>15000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10000</v>
+        <v>72</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>28/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/11/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Faenadora lo Miranda Limitada</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Faenadora lo Miranda Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/11/2004</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FUNDICION TALLERES S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
+          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>FUNDICION TALLERES S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>16000</v>
+        <v>380</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/11/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Colegio Los Cipreses</t>
+          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad Agricola y Comercial SP Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1850</v>
+        <v>856</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>20/11/2002</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Emisario Lo Miranda - Doñihue</t>
+          <t>Colegio Los Cipreses</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Agricola y Comercial SP Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>400</v>
+        <v>1850</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>25/08/1999</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Extracción de Áridos desde El Río Cachapoal</t>
+          <t>Emisario Lo Miranda - Doñihue</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>9590</v>
+        <v>400</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>25/08/1999</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,43 +3880,91 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>Extracción de Áridos desde El Río Cachapoal</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>9590</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10/08/1999</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Doñihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>Sistema de Alcantarillado de Aguas Servidas de Lo Miranda</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>ESSBIO S.A.</t>
         </is>
       </c>
-      <c r="F74" t="n">
+      <c r="F75" t="n">
         <v>5300</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>01/12/1997</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Doñihue</t>
         </is>

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/12/2022</t>
+          <t>06/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización Planta Metran</t>
+          <t>Planta Solar El Milagro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Andrés Eduardo Cardoen Aylwin</t>
+          <t>PLANTA SOLAR EL MILAGRO SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158023139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158674374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
+          <t>Regularización Planta Metran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Metalurgica Rancagua S.A.</t>
+          <t>Andrés Eduardo Cardoen Aylwin</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>06/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158023139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Aromo del Verano</t>
+          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Miscanti de Verano SpA</t>
+          <t>Metalurgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10213</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/12/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hefesto Solar</t>
+          <t>Parque Fotovoltaico Aromo del Verano</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CVE Proyecto Veintisiete SpA.</t>
+          <t>Miscanti de Verano SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>10213</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>22/12/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Hefesto Solar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>CVE Proyecto Veintisiete SpA.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
+          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
+          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
+          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>807</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PFV DOÑIHUE SPA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8200</v>
+        <v>15000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/09/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
+          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>PFV DOÑIHUE SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>51000</v>
+        <v>8200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>21/09/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>51000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alazán</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Alazán S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
+          <t>Proyecto Hidroeléctrico Alazán</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Hidroeléctrica Alazán S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>19/07/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13553</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>13553</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>16/09/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4834</v>
+        <v>22</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1750</v>
+        <v>4834</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>09/05/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>25/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>25/07/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/06/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,21 +2603,21 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4834</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>138</v>
+        <v>4834</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cristian Vial Budge</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>15000</v>
+        <v>138</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Cristian Vial Budge</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>138</v>
+        <v>15000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10000</v>
+        <v>72</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>28/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/11/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Faenadora lo Miranda Limitada</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Faenadora lo Miranda Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/11/2004</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FUNDICION TALLERES S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
+          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>FUNDICION TALLERES S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>16000</v>
+        <v>380</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/11/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Colegio Los Cipreses</t>
+          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Agricola y Comercial SP Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1850</v>
+        <v>856</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>20/11/2002</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Emisario Lo Miranda - Doñihue</t>
+          <t>Colegio Los Cipreses</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Agricola y Comercial SP Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>400</v>
+        <v>1850</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>25/08/1999</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Extracción de Áridos desde El Río Cachapoal</t>
+          <t>Emisario Lo Miranda - Doñihue</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>9590</v>
+        <v>400</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>25/08/1999</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,43 +3928,91 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>Extracción de Áridos desde El Río Cachapoal</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>9590</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>10/08/1999</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Doñihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>Sistema de Alcantarillado de Aguas Servidas de Lo Miranda</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>ESSBIO S.A.</t>
         </is>
       </c>
-      <c r="F75" t="n">
+      <c r="F76" t="n">
         <v>5300</v>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>01/12/1997</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>Doñihue</t>
         </is>

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>20/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Solar El Milagro</t>
+          <t>Regularización de operación e instalaciones Metalurgica Rancagua S.A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR EL MILAGRO SPA</t>
+          <t>Andrés Eduardo Cardoen Aylwin</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>1700</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/02/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158674374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158912521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularización Planta Metran</t>
+          <t>Planta Solar El Milagro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Andrés Eduardo Cardoen Aylwin</t>
+          <t>PLANTA SOLAR EL MILAGRO SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/01/2023</t>
+          <t>20/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158023139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158674374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
+          <t>Regularización Planta Metran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Metalurgica Rancagua S.A.</t>
+          <t>Andrés Eduardo Cardoen Aylwin</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>06/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158023139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Aromo del Verano</t>
+          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Miscanti de Verano SpA</t>
+          <t>Metalurgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10213</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/12/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hefesto Solar</t>
+          <t>Parque Fotovoltaico Aromo del Verano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CVE Proyecto Veintisiete SpA.</t>
+          <t>Miscanti de Verano SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>10213</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>22/12/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Hefesto Solar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>CVE Proyecto Veintisiete SpA.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
+          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
+          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
+          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15000</v>
+        <v>807</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PFV DOÑIHUE SPA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8200</v>
+        <v>15000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/09/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
+          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>PFV DOÑIHUE SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>51000</v>
+        <v>8200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>21/09/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>51000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alazán</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Alazán S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
+          <t>Proyecto Hidroeléctrico Alazán</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Hidroeléctrica Alazán S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>19/07/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>13553</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>13553</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>16/09/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4834</v>
+        <v>22</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1750</v>
+        <v>4834</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>09/05/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>25/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>25/07/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/06/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,21 +2651,21 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4834</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>138</v>
+        <v>4834</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cristian Vial Budge</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>15000</v>
+        <v>138</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Cristian Vial Budge</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>138</v>
+        <v>15000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10000</v>
+        <v>72</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>28/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/11/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Faenadora lo Miranda Limitada</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Faenadora lo Miranda Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/11/2004</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FUNDICION TALLERES S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
+          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>FUNDICION TALLERES S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>16000</v>
+        <v>380</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/11/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Colegio Los Cipreses</t>
+          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Agricola y Comercial SP Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1850</v>
+        <v>856</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>20/11/2002</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Emisario Lo Miranda - Doñihue</t>
+          <t>Colegio Los Cipreses</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Agricola y Comercial SP Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>400</v>
+        <v>1850</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>25/08/1999</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Extracción de Áridos desde El Río Cachapoal</t>
+          <t>Emisario Lo Miranda - Doñihue</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>9590</v>
+        <v>400</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>25/08/1999</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,43 +3976,91 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>Extracción de Áridos desde El Río Cachapoal</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>9590</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10/08/1999</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Doñihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>Sistema de Alcantarillado de Aguas Servidas de Lo Miranda</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>ESSBIO S.A.</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="F77" t="n">
         <v>5300</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>01/12/1997</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Doñihue</t>
         </is>

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>30/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización de operación e instalaciones Metalurgica Rancagua S.A</t>
+          <t>DIA Planta Metran Regularización</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/03/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158912521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159071750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Solar El Milagro</t>
+          <t>Regularización de operación e instalaciones Metalurgica Rancagua S.A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR EL MILAGRO SPA</t>
+          <t>Andrés Eduardo Cardoen Aylwin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>1700</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/02/2023</t>
+          <t>30/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158674374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158912521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización Planta Metran</t>
+          <t>Planta Solar El Milagro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Andrés Eduardo Cardoen Aylwin</t>
+          <t>PLANTA SOLAR EL MILAGRO SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06/01/2023</t>
+          <t>20/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158023139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158674374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
+          <t>Regularización Planta Metran</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Metalurgica Rancagua S.A.</t>
+          <t>Andrés Eduardo Cardoen Aylwin</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>06/01/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158023139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Aromo del Verano</t>
+          <t>Regularización de instalaciones Metalúrgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Miscanti de Verano SpA</t>
+          <t>Metalurgica Rancagua S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10213</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157335394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/12/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149504832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hefesto Solar</t>
+          <t>Parque Fotovoltaico Aromo del Verano</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CVE Proyecto Veintisiete SpA.</t>
+          <t>Miscanti de Verano SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>10213</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>22/12/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149368121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Hefesto Solar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>CVE Proyecto Veintisiete SpA.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
+          <t>Extracción Mecanizada de Aridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
+          <t>Sociedad de Inversiones El Milagro ABO SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144907407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
+          <t>Extracción Mecanizada de Áridos Río Cachapoal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>ARIDOS Y RESIDUOS O'HIGGINS SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15000</v>
+        <v>807</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138523766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Planteles de Crianza de Aves Broiler Bosque Nuevo - La Punta</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PFV DOÑIHUE SPA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8200</v>
+        <v>15000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/09/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132745006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
+          <t>PLANTA FOTOVOLTAICO LO MIRANDA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>PFV DOÑIHUE SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>51000</v>
+        <v>8200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>21/09/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132717363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización y Desarrollo Planta Faenadora de Aves Lo Miranda</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>51000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132518610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alazán</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Alazán S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
+          <t>Proyecto Hidroeléctrico Alazán</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Hidroeléctrica Alazán S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>19/07/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131587642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Actualización y Desarrollo Planta de Alimentos Lo Miranda</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131246932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>13553</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Desarrollo y Mejoramiento Tecnológico Plantel de Aves Bosque Viejo Plantel de Aves Bosque Viejo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>13553</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>16/09/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6033477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4834</v>
+        <v>22</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación al Sistema de Respaldo de Energía Eléctrica, Faenadora Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1750</v>
+        <v>4834</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETÁLICOS AUSTRAL MINING COMPANY polimetalicos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>09/05/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>25/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>25/07/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2225796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Belisario Bastisas Espinoza</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Belisario Bastias Espinoza (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Belisario Bastisas Espinoza</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/06/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,21 +2699,21 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Faenadora Lo Miranda Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4834</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Respaldo de Energía Eléctrica Faenadora Lo Miranda Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Faenadora Lo Miranda Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>138</v>
+        <v>4834</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1661083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cristian Vial Budge</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>15000</v>
+        <v>138</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Planta de Procesos de Minerales Polimetálicos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Cristian Vial Budge</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>138</v>
+        <v>15000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10000</v>
+        <v>72</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>planta de alimentos lo miranda III etapa (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/11/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Faenadora lo Miranda Limitada</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES FAENADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Faenadora lo Miranda Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/11/2004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=503148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE EFLUENTES INCUBADORA LO MIRANDA (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FUNDICION TALLERES S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
+          <t>Proyecto Recuperación Pozo Lastre en Lo Miranda (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>FUNDICION TALLERES S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>16000</v>
+        <v>380</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/11/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Colegio Los Cipreses</t>
+          <t>DISEÑO DE MEJORAMIENTO INTEGRAL DEL SISTEMA DE AGUA POTABLE DE LO MIRANDA, COMUNA DE DOÑIHUE, PROVINCIA DE CACHAPOAL, VI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad Agricola y Comercial SP Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1850</v>
+        <v>856</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>20/11/2002</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Emisario Lo Miranda - Doñihue</t>
+          <t>Colegio Los Cipreses</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sociedad Agricola y Comercial SP Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>400</v>
+        <v>1850</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>25/08/1999</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Extracción de Áridos desde El Río Cachapoal</t>
+          <t>Emisario Lo Miranda - Doñihue</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>9590</v>
+        <v>400</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>25/08/1999</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,43 +4024,91 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>Extracción de Áridos desde El Río Cachapoal</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>9590</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>10/08/1999</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2215&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Doñihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>Sistema de Alcantarillado de Aguas Servidas de Lo Miranda</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>ESSBIO S.A.</t>
         </is>
       </c>
-      <c r="F77" t="n">
+      <c r="F78" t="n">
         <v>5300</v>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>01/12/1997</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>Doñihue</t>
         </is>

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2023</t>
+          <t>27/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
+          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Belisario Bastias Espinoza</t>
+          <t>Austral Mining Company Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>33</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE PROCESOS DE MINERALES POLIMETALICOS AUSTRAL MINING COMPANY Mining (e-seia)</t>
+          <t>Planta de RILes, Faenadora y Frigorífico Doñihue Doñihue (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Austral Mining Company Limitada</t>
+          <t>Belisario Bastias Espinoza</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2896457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">

--- a/data/Doñihue.xlsx
+++ b/data/Doñihue.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
